--- a/MimicPanel/DriverDesk/DriverDeskTft/PinOut.xlsx
+++ b/MimicPanel/DriverDesk/DriverDeskTft/PinOut.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Electronica/DigitalTrains/MimicPanel/DriverDesk/DriverDeskTft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/OHS/danielvilas/DigitalTrains/MimicPanel/DriverDesk/DriverDeskTft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA638F2-4B52-8C47-A1A9-4AFE6B1E6D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69A6FBF-8870-5041-A8D9-EBAA5B148814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="6960" windowWidth="28040" windowHeight="17440" xr2:uid="{7FBBD6A7-D4F6-3247-B6ED-59D4AB52A278}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
   <si>
     <t>STMf103C8T6</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>SWDO</t>
+  </si>
+  <si>
+    <t>RENC_A</t>
+  </si>
+  <si>
+    <t>RENC_B</t>
+  </si>
+  <si>
+    <t>RENC_S</t>
   </si>
 </sst>
 </file>
@@ -567,7 +576,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H15"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,7 +675,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F18" si="1">_xlfn.CONCAT("PB_",A4)</f>
@@ -701,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
@@ -736,7 +745,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
@@ -911,7 +920,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
@@ -981,7 +990,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
@@ -1181,5 +1190,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/MimicPanel/DriverDesk/DriverDeskTft/PinOut.xlsx
+++ b/MimicPanel/DriverDesk/DriverDeskTft/PinOut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/OHS/danielvilas/DigitalTrains/MimicPanel/DriverDesk/DriverDeskTft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69A6FBF-8870-5041-A8D9-EBAA5B148814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3E68A1-29DB-F84B-8217-0B6A68329A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="6960" windowWidth="28040" windowHeight="17440" xr2:uid="{7FBBD6A7-D4F6-3247-B6ED-59D4AB52A278}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>STMf103C8T6</t>
   </si>
@@ -190,13 +190,46 @@
   </si>
   <si>
     <t>RENC_S</t>
+  </si>
+  <si>
+    <t>RENC_H</t>
+  </si>
+  <si>
+    <t>BTN_10</t>
+  </si>
+  <si>
+    <t>BTN_9</t>
+  </si>
+  <si>
+    <t>BTN_3</t>
+  </si>
+  <si>
+    <t>BTN_4</t>
+  </si>
+  <si>
+    <t>BTN_5</t>
+  </si>
+  <si>
+    <t>BTN_6</t>
+  </si>
+  <si>
+    <t>BTN_7</t>
+  </si>
+  <si>
+    <t>BTN_8</t>
+  </si>
+  <si>
+    <t>BTN_1</t>
+  </si>
+  <si>
+    <t>BTN_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,6 +242,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -576,7 +615,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F3" t="str">
         <f>_xlfn.CONCAT("PB_",A3)</f>
@@ -650,7 +689,7 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="J3" t="str">
         <f>_xlfn.CONCAT("PC_",A3)</f>
@@ -685,7 +724,7 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" ref="J4:J18" si="2">_xlfn.CONCAT("PC_",A4)</f>
@@ -920,7 +959,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
@@ -930,7 +969,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="2"/>
@@ -955,7 +994,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
@@ -965,7 +1004,7 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="2"/>
@@ -1000,7 +1039,7 @@
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="2"/>
@@ -1035,7 +1074,7 @@
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="2"/>
@@ -1070,7 +1109,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="2"/>
@@ -1105,7 +1144,7 @@
         <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="2"/>
@@ -1140,7 +1179,7 @@
         <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="2"/>
@@ -1175,7 +1214,7 @@
         <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="2"/>
@@ -1189,6 +1228,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/MimicPanel/DriverDesk/DriverDeskTft/PinOut.xlsx
+++ b/MimicPanel/DriverDesk/DriverDeskTft/PinOut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/OHS/danielvilas/DigitalTrains/MimicPanel/DriverDesk/DriverDeskTft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3E68A1-29DB-F84B-8217-0B6A68329A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0922624D-906A-9749-A819-9A538A31223E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="6960" windowWidth="28040" windowHeight="17440" xr2:uid="{7FBBD6A7-D4F6-3247-B6ED-59D4AB52A278}"/>
   </bookViews>
@@ -615,7 +615,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1074,7 +1074,7 @@
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="2"/>
@@ -1109,7 +1109,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="2"/>
@@ -1179,7 +1179,7 @@
         <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="2"/>
@@ -1214,7 +1214,7 @@
         <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="2"/>

--- a/MimicPanel/DriverDesk/DriverDeskTft/PinOut.xlsx
+++ b/MimicPanel/DriverDesk/DriverDeskTft/PinOut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/OHS/danielvilas/DigitalTrains/MimicPanel/DriverDesk/DriverDeskTft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0922624D-906A-9749-A819-9A538A31223E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1F8D4A-3814-214A-9FF3-7F9B20FB039C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="6960" windowWidth="28040" windowHeight="17440" xr2:uid="{7FBBD6A7-D4F6-3247-B6ED-59D4AB52A278}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>STMf103C8T6</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>BTN_2</t>
+  </si>
+  <si>
+    <t>INT_PIN</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,7 +832,7 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="2"/>

--- a/MimicPanel/DriverDesk/DriverDeskTft/PinOut.xlsx
+++ b/MimicPanel/DriverDesk/DriverDeskTft/PinOut.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/OHS/danielvilas/DigitalTrains/MimicPanel/DriverDesk/DriverDeskTft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1F8D4A-3814-214A-9FF3-7F9B20FB039C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C31468-D882-1C43-BE77-1B221425F14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="6960" windowWidth="28040" windowHeight="17440" xr2:uid="{7FBBD6A7-D4F6-3247-B6ED-59D4AB52A278}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$L$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -174,12 +177,6 @@
     <t>###</t>
   </si>
   <si>
-    <t>USB DP</t>
-  </si>
-  <si>
-    <t>USB DM</t>
-  </si>
-  <si>
     <t>SWDO</t>
   </si>
   <si>
@@ -226,6 +223,12 @@
   </si>
   <si>
     <t>INT_PIN</t>
+  </si>
+  <si>
+    <t>USB_N</t>
+  </si>
+  <si>
+    <t>USB_P</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -269,16 +272,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -615,10 +634,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD17A1F-91B6-C74C-9CAE-D6D6810F3E02}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,608 +653,652 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str">
         <f>_xlfn.CONCAT("PA_",A3)</f>
         <v>PA_0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="str">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="str">
         <f>_xlfn.CONCAT("PB_",A3)</f>
         <v>PB_0</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="str">
+      <c r="H3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="str">
         <f>_xlfn.CONCAT("PC_",A3)</f>
         <v>PC_0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <f t="shared" ref="B4:B18" si="0">_xlfn.CONCAT("PA_",A4)</f>
         <v>PA_1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="str">
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="str">
         <f t="shared" ref="F4:F18" si="1">_xlfn.CONCAT("PB_",A4)</f>
         <v>PB_1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="str">
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="str">
         <f t="shared" ref="J4:J18" si="2">_xlfn.CONCAT("PC_",A4)</f>
         <v>PC_1</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA_2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PB_2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" t="str">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="str">
         <f t="shared" si="2"/>
         <v>PC_2</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA_3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PB_3</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="str">
+      <c r="H6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="str">
         <f t="shared" si="2"/>
         <v>PC_3</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA_4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="str">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PB_4</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" t="str">
+      <c r="H7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>PC_4</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA_5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="str">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PB_5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J8" t="str">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="str">
         <f t="shared" si="2"/>
         <v>PC_5</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA_6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="str">
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PB_6</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J9" t="str">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>PC_6</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA_7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="str">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PB_7</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J10" t="str">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="str">
         <f t="shared" si="2"/>
         <v>PC_7</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA_8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="str">
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PB_8</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" t="str">
+      <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>PC_8</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA_9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="str">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PB_9</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" t="str">
+      <c r="H12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="str">
         <f t="shared" si="2"/>
         <v>PC_9</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA_10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F13" t="str">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PB_10</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" t="str">
+      <c r="H13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="str">
         <f t="shared" si="2"/>
         <v>PC_10</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA_11</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="str">
+      <c r="D14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PB_11</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" t="str">
+      <c r="H14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>PC_11</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA_12</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="str">
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PB_12</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H15" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" t="str">
+      <c r="H15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="str">
         <f t="shared" si="2"/>
         <v>PC_12</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA_13</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F16" t="str">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PB_13</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" t="str">
+      <c r="H16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="str">
         <f t="shared" si="2"/>
         <v>PC_13</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA_14</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F17" t="str">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PB_14</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" t="str">
+      <c r="H17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>PC_14</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA_15</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F18" t="str">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PB_15</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" t="str">
+      <c r="H18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="str">
         <f t="shared" si="2"/>
         <v>PC_15</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="1" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>